--- a/SWP/Electric Vehicle Topic List_FA25.xlsx
+++ b/SWP/Electric Vehicle Topic List_FA25.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65F4546-1A00-46EE-A453-749133866591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topic" sheetId="1" r:id="rId1"/>
@@ -862,158 +863,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. Chức năng cho Trung tâm dịch vụ (SC Staff, SC Technican)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a. Quản lý hồ sơ xe &amp; khách hàng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+ Đăng ký xe theo VIN.
-+ Gắn số seri phụ tùng lắp trên xe.
-+ Lưu lịch sử dịch vụ &amp; bảo hành.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b. Xử lý yêu cầu bảo hành</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+ Tạo yêu cầu bảo hành (warranty claim) gửi lên hãng.
-+ Đính kèm báo cáo kiểm tra, hình ảnh, thông tin chẩn đoán.
-+ Theo dõi trạng thái yêu cầu (đã gửi – chờ duyệt – được chấp nhận – đã xử lý).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c. Thực hiện bảo hành</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+ Nhận phụ tùng từ hãng.
-+ Quản lý tiến độ sửa chữa/thay thế phụ tùng.
-+ Cập nhật kết quả bảo hành và bàn giao xe.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d. Thực hiện chiến dịch từ hãng (Recall/Service Campaigns)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+ Nhận danh sách xe thuộc diện recall/Service Campaigns.
-+ Gửi thông báo cho khách hàng khi xe thuộc diện chiến dịch → Quản lý lịch hẹn → Thực hiện xử lý→ Báo cáo kết quả về hãng.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e. Quản lý nội bộ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+ Phân công kỹ thuật viên xử lý từng case bảo hành.
-+ Theo dõi thời gian &amp; hiệu suất xử lý.
-+ Lưu trữ hồ sơ bảo hành phục vụ kiểm tra và báo cáo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>2. Chức năng cho Trung tâm dịch vụ (Staff, Technican, Admin)</t>
     </r>
     <r>
@@ -3125,12 +2974,208 @@
 Staff
 Admin</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Chức năng cho Trung tâm dịch vụ (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SC Staff</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SC Technican</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a. Quản lý hồ sơ xe &amp; khách hàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++ Đăng ký xe theo VIN.
++ Gắn số seri phụ tùng lắp trên xe.
++ Lưu lịch sử dịch vụ &amp; bảo hành.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b. Xử lý yêu cầu bảo hành</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++ Tạo yêu cầu bảo hành (warranty claim) gửi lên hãng.
++ Đính kèm báo cáo kiểm tra, hình ảnh, thông tin chẩn đoán.
++ Theo dõi trạng thái yêu cầu (đã gửi – chờ duyệt – được chấp nhận – đã xử lý).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c. Thực hiện bảo hành</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++ Nhận phụ tùng từ hãng.
++ Quản lý tiến độ sửa chữa/thay thế phụ tùng.
++ Cập nhật kết quả bảo hành và bàn giao xe.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d. Thực hiện chiến dịch từ hãng (Recall/Service Campaigns)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++ Nhận danh sách xe thuộc diện recall/Service Campaigns.
++ Gửi thông báo cho khách hàng khi xe thuộc diện chiến dịch → Quản lý lịch hẹn → Thực hiện xử lý→ Báo cáo kết quả về hãng.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e. Quản lý nội bộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++ Phân công kỹ thuật viên xử lý từng case bảo hành.
++ Theo dõi thời gian &amp; hiệu suất xử lý.
++ Lưu trữ hồ sơ bảo hành phục vụ kiểm tra và báo cáo.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3175,6 +3220,40 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3308,90 +3387,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3668,372 +3726,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="4" width="19" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+    <row r="2" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>28</v>
+      <c r="B2" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="17" t="s">
-        <v>27</v>
+      <c r="E2" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="19"/>
+    <row r="3" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="19"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+    <row r="4" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18"/>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+    <row r="6" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19"/>
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
+    <row r="8" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+    <row r="9" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>29</v>
+      <c r="B9" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>32</v>
+      <c r="E9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="19"/>
+    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="11" t="s">
-        <v>31</v>
+      <c r="E10" s="14"/>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18"/>
+    <row r="11" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="11" t="s">
-        <v>33</v>
+      <c r="E11" s="19"/>
+      <c r="F11" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+    <row r="12" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>5</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="19"/>
+    <row r="13" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="216" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
+    <row r="14" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+    <row r="15" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>6</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="17" t="s">
-        <v>51</v>
+      <c r="E15" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
+    <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+    <row r="17" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>7</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>20</v>
+      <c r="F17" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18"/>
+    <row r="18" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="10" t="s">
-        <v>19</v>
+      <c r="E18" s="19"/>
+      <c r="F18" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="288" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+    <row r="19" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>8</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>18</v>
+      <c r="E19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
+    <row r="20" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="10" t="s">
-        <v>23</v>
+      <c r="E20" s="19"/>
+      <c r="F20" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+    <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>9</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="25" t="s">
+      <c r="F21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="22" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+    <row r="24" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>10</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>40</v>
+      <c r="B24" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="17" t="s">
-        <v>39</v>
+      <c r="E24" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="19"/>
+    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="19"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="19"/>
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="19"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="18"/>
+    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="18"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A19:A20"/>
@@ -4050,14 +4110,12 @@
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SWP/Electric Vehicle Topic List_FA25.xlsx
+++ b/SWP/Electric Vehicle Topic List_FA25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65F4546-1A00-46EE-A453-749133866591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4602CB-3612-4403-98CD-935732F6693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3062,7 +3062,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-+ Đăng ký xe theo VIN.
++ Đăng ký xe theo VIN. 
 + Gắn số seri phụ tùng lắp trên xe.
 + Lưu lịch sử dịch vụ &amp; bảo hành.
 </t>
@@ -3732,7 +3732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SWP/Electric Vehicle Topic List_FA25.xlsx
+++ b/SWP/Electric Vehicle Topic List_FA25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4602CB-3612-4403-98CD-935732F6693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE5B5C2-4419-4A41-981C-647631CF1143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3428,6 +3428,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3441,9 +3444,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3732,7 +3732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3781,11 +3781,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="14"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
@@ -3807,11 +3807,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
@@ -3833,21 +3833,21 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
@@ -3869,21 +3869,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="9" t="s">
         <v>32</v>
       </c>
@@ -3905,21 +3905,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
@@ -3941,11 +3941,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="4" t="s">
         <v>49</v>
       </c>
@@ -3967,11 +3967,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="345" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="19"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="8" t="s">
         <v>18</v>
       </c>
@@ -3993,11 +3993,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="19"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="8" t="s">
         <v>22</v>
       </c>
@@ -4006,12 +4006,12 @@
       <c r="A21" s="13">
         <v>9</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="18" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -4019,21 +4019,21 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="4" t="s">
         <v>35</v>
       </c>
@@ -4055,45 +4055,43 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="19"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="8" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="E24:E27"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A19:A20"/>
@@ -4110,12 +4108,14 @@
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SWP/Electric Vehicle Topic List_FA25.xlsx
+++ b/SWP/Electric Vehicle Topic List_FA25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE5B5C2-4419-4A41-981C-647631CF1143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6277B9-18AE-40D4-A746-8617CA4F0077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3428,9 +3428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3444,6 +3441,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3731,7 +3731,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -3781,11 +3781,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
@@ -3807,11 +3807,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
@@ -3833,21 +3833,21 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
@@ -3869,21 +3869,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="9" t="s">
         <v>32</v>
       </c>
@@ -3905,21 +3905,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
@@ -3941,11 +3941,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="4" t="s">
         <v>49</v>
       </c>
@@ -3967,11 +3967,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="345" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="8" t="s">
         <v>18</v>
       </c>
@@ -3993,11 +3993,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="8" t="s">
         <v>22</v>
       </c>
@@ -4006,12 +4006,12 @@
       <c r="A21" s="13">
         <v>9</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -4019,21 +4019,21 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="4" t="s">
         <v>35</v>
       </c>
@@ -4055,43 +4055,45 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="8" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A19:A20"/>
@@ -4108,14 +4110,12 @@
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
